--- a/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_register.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Asset Register Report" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Accum. Depre. Group By GL" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t xml:space="preserve">Asset Register Report</t>
   </si>
@@ -233,11 +232,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -323,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,18 +367,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -393,18 +378,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -416,7 +389,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,64 +807,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="12" width="16.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A1="Total"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>